--- a/data/case - 副本.xlsx
+++ b/data/case - 副本.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>用例标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,11 @@
   <si>
     <t>1.a&gt;send_keys
 2.b&gt;click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.期望1
+2.期望2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +421,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -457,6 +462,9 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
